--- a/sorting_and_class_outputs/Summarised spatial domain outputs.xlsx
+++ b/sorting_and_class_outputs/Summarised spatial domain outputs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A N Other\motif_analysis\sorting_and_class_outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBCA38D-D267-4BAF-8501-65C880447D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1BD965-889E-45F3-964D-2D7874046D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{2FCEF12C-7927-4FBB-9FA7-D9822D3C0841}"/>
   </bookViews>
@@ -2119,7 +2119,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Domain Frequency (%)</a:t>
+              <a:t> Domain Distribution (%)</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -5018,8 +5018,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3220720" y="2348230"/>
-          <a:ext cx="1336040" cy="380486"/>
+          <a:off x="3220700" y="2348234"/>
+          <a:ext cx="1336075" cy="380482"/>
           <a:chOff x="3220720" y="2348230"/>
           <a:chExt cx="1336040" cy="380486"/>
         </a:xfrm>
@@ -5191,8 +5191,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3251200" y="2340610"/>
-          <a:ext cx="1320800" cy="372109"/>
+          <a:off x="3251195" y="2340608"/>
+          <a:ext cx="1320805" cy="372115"/>
           <a:chOff x="3251200" y="2340610"/>
           <a:chExt cx="1320800" cy="372109"/>
         </a:xfrm>
@@ -5873,8 +5873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25BC5D85-3D3F-4B44-AC0C-421939888582}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
